--- a/similarities/split_global/harmonic_similarity_timestamps_235.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_235.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,90 +484,110 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_42</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_52</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7', 'Bb']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7/C', 'A#']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:36.241000', '0:01:41.882000')]</t>
+          <t>('0:00:40.820000', '0:00:43.620000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:33.260000', '0:00:35.860000')]</t>
+          <t>('0:00:01.440000', '0:00:06.660000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=96.241']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.82</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=33.26']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=1.44</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_271</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E', 'C#:min', 'F#:min']]</t>
+          <t>['F:min', 'C:7/F', 'F:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:07.755487', '0:00:19.945963')]</t>
+          <t>('0:00:14.920000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:07.640000', '0:00:15')]</t>
+          <t>('0:00:41.580000', '0:00:43.480000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-271#t=7.755487']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=7.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.58</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -576,594 +596,654 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_101</t>
+          <t>schubert-winterreise_147</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:30.800000', '0:00:45.300000')]</t>
+          <t>('0:00:19.780000', '0:00:29.500000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:42.400000', '0:02:01.440000')]</t>
+          <t>('0:00:00.800000', '0:00:10.540000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-101#t=30.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=102.4']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:10.380000', '0:00:16.320000')]</t>
+          <t>('0:03:50.780000', '0:04:06.860000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:11.160000', '0:00:16.300000')]</t>
+          <t>('0:00:21.080000', '0:00:24.960000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=230.78</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=21.08</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
+          <t>('0:01:08.080000', '0:01:27.320000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:00.660000', '0:00:02.680000')]</t>
+          <t>('0:02:02.780000', '0:02:05')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=68.08</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=122.78</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
+          <t>schubert-winterreise_88</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:29.220000', '0:01:03.280000')]</t>
+          <t>('0:00:59.800000', '0:01:09.340000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:43.880000', '0:00:57.580000')]</t>
+          <t>('0:00:16.040000', '0:00:24.060000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=29.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=59.8</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=43.88']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_8</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_4</t>
+          <t>jaah_9</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C:7', 'F:7']]</t>
+          <t>['C:7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:7', 'Bb:7', 'Eb:7']]</t>
+          <t>['G:7', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:17.150000', '0:00:25.320000')]</t>
+          <t>('0:00:24.250000', '0:00:28.150000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:41.170000', '0:00:48.620000')]</t>
+          <t>('0:00:50.360000', '0:00:57.040000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-8#t=17.15']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=24.25</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=41.17']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-9#t=50.36</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_189</t>
+          <t>isophonics_182</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'A:min']]</t>
+          <t>['G', 'C/5', 'G']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:09.619433', '0:00:16.956938')]</t>
+          <t>('0:00:59.182426', '0:01:04.464965')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:20.220000', '0:00:25.620000')]</t>
+          <t>('0:01:15.520000', '0:01:19.700000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-189#t=9.619433']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=20.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_179</t>
+          <t>isophonics_218</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb/2', 'Bb']]</t>
+          <t>['G:7', 'C', 'F']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D', 'D/7', 'A/3']]</t>
+          <t>['D:7', 'G:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:40.219000', '0:00:45.818000')]</t>
+          <t>('0:00:35.997000', '0:00:42.131000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:10.129790', '0:00:11.569428')]</t>
+          <t>('0:00:15.620000', '0:00:21.660000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-179#t=40.219']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=35.997</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-30#t=10.12979']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=15.62</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_174</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:42.400000', '0:02:01.440000')]</t>
+          <t>('0:02:08.760000', '0:02:13.560000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:32.480000', '0:00:45.820000')]</t>
+          <t>('0:00:11.384000', '0:00:18.318000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=102.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-174#t=32.48']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>schubert-winterreise_46</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:31.740000', '0:00:33.880000')]</t>
+          <t>('0:00:19.980000', '0:00:28.900000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:39.020000', '0:00:43.960000')]</t>
+          <t>('0:00:21.140000', '0:00:27.920000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=31.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=19.98</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=39.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=21.14</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D', 'G/5', 'D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:22.290863', '0:01:33.575761')]</t>
+          <t>('0:01:45', '0:01:48.240000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
+          <t>('0:00:12.707687', '0:00:25.501882')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['D#:maj', 'A#:maj', 'D#:maj'], ['D#:7/C#', 'G#:maj/C', 'D#:maj/A#']]</t>
+          <t>['F:maj/A', 'A#:maj', 'F:maj/C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:7', 'Eb'], ['Bb', 'F', 'Bb'], ['Bb:7', 'Eb', 'Bb']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:17.980000', '0:00:26.320000'), ('0:00:02.560000', '0:00:21.440000'), ('0:01:03.460000', '0:01:05.780000')]</t>
+          <t>('0:01:01.480000', '0:01:03.580000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:48.170328', '0:00:55.589104'), ('0:00:26.041712', '0:00:37.106020'), ('0:00:49.981485', '0:00:59.292687')]</t>
+          <t>('0:00:03.884104', '0:00:23.632675')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=17.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=2.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=63.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=48.170328', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=26.041712', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=49.981485']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A:min', 'E:maj', 'A:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:12.640000', '0:01:23.380000')]</t>
+          <t>('0:00:13.500000', '0:00:21.900000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:39.180000', '0:00:53.360000')]</t>
+          <t>('0:00:00.980000', '0:00:06.140000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=39.18']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.98</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_28</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_117</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:maj', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D', 'A', 'E']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:09.967000', '0:00:18.837000')]</t>
+          <t>('0:00:15.300000', '0:00:22.660000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:09.305410', '0:00:14.541510')]</t>
+          <t>('0:00:07.160000', '0:00:20.240000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=9.967']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=9.30541']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=7.16</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
